--- a/Unity Project/Assets/Resources/Data/KeySettingData.xlsx
+++ b/Unity Project/Assets/Resources/Data/KeySettingData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GItData\RRD\Unity Project\Assets\Resources\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGitHub\RRD\Unity Project\Assets\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7A2D3F-B67C-453A-A375-46A9CC88DF41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5005C76-AAA7-4A49-8672-0501ACCA8E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Default" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +64,14 @@
   </si>
   <si>
     <t>MoveRight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KeyManager</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -420,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -471,6 +479,14 @@
         <v>9</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity Project/Assets/Resources/Data/KeySettingData.xlsx
+++ b/Unity Project/Assets/Resources/Data/KeySettingData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGitHub\RRD\Unity Project\Assets\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5005C76-AAA7-4A49-8672-0501ACCA8E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079D847C-77BF-4BF7-BAEF-1657DBC6512B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8400" yWindow="1845" windowWidth="14550" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Default" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +72,14 @@
   </si>
   <si>
     <t>KeyManager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftShift</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Run</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -487,6 +495,14 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity Project/Assets/Resources/Data/KeySettingData.xlsx
+++ b/Unity Project/Assets/Resources/Data/KeySettingData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGitHub\RRD\Unity Project\Assets\Resources\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GItData\RRD\Unity Project\Assets\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079D847C-77BF-4BF7-BAEF-1657DBC6512B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41162A8-0E54-4BE2-B039-8C1F8E1B503C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8400" yWindow="1845" windowWidth="14550" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Default" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,14 @@
   </si>
   <si>
     <t>Run</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inventory</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -436,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -503,6 +511,14 @@
         <v>13</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity Project/Assets/Resources/Data/KeySettingData.xlsx
+++ b/Unity Project/Assets/Resources/Data/KeySettingData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GItData\RRD\Unity Project\Assets\Resources\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGitHub\RRD\Unity Project\Assets\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41162A8-0E54-4BE2-B039-8C1F8E1B503C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9098A2-B6F7-49AE-86A0-3B634D30E753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8400" yWindow="1845" windowWidth="14550" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Default" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +88,22 @@
   </si>
   <si>
     <t>Inventory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Space</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterSpawnManager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,15 +460,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -497,10 +513,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -517,6 +533,22 @@
       </c>
       <c r="B8" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Unity Project/Assets/Resources/Data/KeySettingData.xlsx
+++ b/Unity Project/Assets/Resources/Data/KeySettingData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGitHub\RRD\Unity Project\Assets\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9098A2-B6F7-49AE-86A0-3B634D30E753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9135CD-4359-44E9-8A3C-72DD524FB53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8400" yWindow="1845" windowWidth="14550" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +104,22 @@
   </si>
   <si>
     <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_E</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -551,6 +567,22 @@
         <v>18</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity Project/Assets/Resources/Data/KeySettingData.xlsx
+++ b/Unity Project/Assets/Resources/Data/KeySettingData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGitHub\RRD\Unity Project\Assets\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9135CD-4359-44E9-8A3C-72DD524FB53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1048DB45-FF20-43BB-88F2-AC3638DC9D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8400" yWindow="1845" windowWidth="14550" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1695" windowWidth="14550" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Default" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,10 +99,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MonsterSpawnManager</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>P</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,6 +116,18 @@
   </si>
   <si>
     <t>Skill_E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quest_UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WaveGenerator_UI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -561,26 +569,34 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="s">
-        <v>23</v>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
